--- a/data/original/exercises/020-qualtrics/020-pre-workshop.xlsx
+++ b/data/original/exercises/020-qualtrics/020-pre-workshop.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -761,6 +761,919 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44523.79449074074</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44523.79934027778</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>418</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44523.79934027778</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1pogus</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>library(tidyverse)
+library(readxl)
+tumor &lt;- read_excel("data/medicaldata_tumorgrowth.xlsx")</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44523.79488425926</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44523.79962962963</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>410</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44523.7996412037</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3mihar</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">library(tidyverse)
+library(readxl)
+tumor &lt;- read_xlsx("data/medicaldata_tumorgrowth.xlsx")
+tumor_subset &lt;- tumor  %&gt;% 
+select(-Grp) %&gt;% 
+filter(Day %in% c(0,20))
+tumor_subset %&gt;% 
+group_by(Group, Day) %&gt;% 
+summarize(mean_size = mean(Size))
+write_csv(tumor_subset, "data/tumorsubset.csv")
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44523.79459490741</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44523.80002314815</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>468</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44523.80002314815</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1dabec</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>library(tidyverse)
+library(readxl)
+setwd("data")
+tumor &lt;- read_xlsx("medicaldata_tumorgrowth.xlsx")
+tumor_subset &lt;- select(.data = tumor, -Grp) %&gt;% filter(Day == 0 | 20)
+ran out of time :(</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44523.79444444444</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44523.80104166667</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>569</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44523.80104166667</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1ocbry</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>library(tidyverse)
+library(readxl)
+tumor &lt;- read_excel("data/medicaldata_tumorgrowth.xlsx")
+tumor_subset &lt;- tumor %&gt;%
+select(-Grp) %&gt;%
+filter(Day==0 | Day==20) %&gt;%
+mutate(tumor_size = mean(Size))
+write_csv(tumor_subset, "data/tumorsubset.csv")</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44523.795</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44523.8016087963</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>571</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44523.8016087963</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2dunic</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>library(tidyverse)
+library(readx1)
+tumor &lt;- data/medicaldata_tumorgrowth.xlsx
+tumor_subset &lt;- tumor[-Grp, data0,20]
+data/tumorsubset.csv &lt;- tumor_subset[average, size]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44523.7944675926</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44523.80298611111</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>736</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44523.80299768518</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1bimil</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>library(tidyverse)
+library(readxl)
+tumor &lt;- read_excel("data/medicaldata_tumorgrowth.xlsx")
+tumor_subset &lt;- tumor  %&gt;% 
+select(-Grp)  %&gt;% 
+filter(Day == 0 | Day == 20)  %&gt;% 
+group_by(Group, Day)  %&gt;% 
+summarise(Average_Size = mean(Size)) %&gt;% 
+write_csv("data/tumorsubset.csv")
+tumor_subset</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44523.80146990741</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44523.82436342593</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>1978</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44523.82436342593</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1davec</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>```{r}
+# Load the data
+tumor &lt;- read_excel("medicaldata_tumorgrowth.xlsx")
+# Select all columns except for Grp + filter Day 0 or 20
+tumor_subset &lt;- tumor %&gt;% select(Group, ID, Day, Size)
+tumor_subset &lt;- tumor_subset %&gt;% filter(Day == 0 | Day == 20)
+# Averages per group for tumor size
+results &lt;- tumor_subset %&gt;% group_by(Group, Day) %&gt;% summarise(mean = mean(Size))
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44523.79555555555</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44523.82715277778</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>2730</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44523.82715277778</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0LIBOL</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ebola %&gt;%
+  pivot_longer(Cases_Guinea:last_col()) %&gt;%
+  separate(name, into = c("case_death", "country"), sep = "_") %&gt;%
+  drop_na ()</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44518.79810185185</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44518.83019675926</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>2772</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44523.87987268518</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0spqua</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44523.79476851852</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44523.80253472222</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>670</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44523.87989583334</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0maman</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44518.82142361111</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44518.82150462963</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44523.87989583334</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>3kusou</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44523.79574074074</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44523.79642361112</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>58</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44523.87990740741</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1LiLu</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44523.79913194444</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44523.79947916667</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44523.87990740741</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1davec</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44523.83918981481</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44523.85788194445</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>1615</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44523.87990740741</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1+ka+mei</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44518.79681712963</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44518.81891203704</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>1909</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44523.87990740741</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0hacum</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44518.79938657407</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44518.82951388889</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>2603</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44523.87990740741</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>5newea</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44518.803125</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44518.82950231481</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>2279</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44523.87991898148</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0krcon</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44518.79930555556</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44518.85572916667</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>4874</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44523.87991898148</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2hagra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44518.81675925926</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44518.81971064815</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>255</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44523.87991898148</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2tacaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44518.799375</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44518.82342592593</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>2078</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44523.87993055556</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2wispr</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44518.80118055556</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44518.80342592593</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>194</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44523.87993055556</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>6chhom</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44518.80474537037</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44518.85444444444</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>4293</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44523.87994212963</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0hacar</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44523.79572916667</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44523.79584490741</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44523.87996527778</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1sawes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44523.79447916667</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44523.81150462963</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>1471</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>44523.87997685185</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>3hostc</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44523.79606481482</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44523.79739583333</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>115</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>44523.88005787037</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2micar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
